--- a/Media_Room.xlsx
+++ b/Media_Room.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fishe\Dropbox\DIY\Richland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fishe\Dropbox\DIY\Richland\Remodel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Parts" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Parts" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>Clothes</t>
   </si>
@@ -97,6 +98,24 @@
   </si>
   <si>
     <t>Thermally Fused Laminate 0.625-in D x 48-in L x 15.75-in W White Shelf Board</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>KALAX 2x5</t>
+  </si>
+  <si>
+    <t>EKET 2x2</t>
+  </si>
+  <si>
+    <t>EKET1X2</t>
+  </si>
+  <si>
+    <t>KALAX 1x4</t>
+  </si>
+  <si>
+    <t>KALAX2x4</t>
   </si>
 </sst>
 </file>
@@ -474,9 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -957,9 +974,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <f>15+3/8</f>
+        <v>15.375</v>
+      </c>
+      <c r="C2">
+        <f>57+7/8</f>
+        <v>57.875</v>
+      </c>
+      <c r="D2">
+        <f>30+3/8</f>
+        <v>30.375</v>
+      </c>
+      <c r="F2">
+        <v>23.25</v>
+      </c>
+      <c r="G2">
+        <f>F2-13.75</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>13.75</v>
+      </c>
+      <c r="C3">
+        <v>27.5</v>
+      </c>
+      <c r="D3">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>13.75</v>
+      </c>
+      <c r="C4">
+        <v>13.75</v>
+      </c>
+      <c r="D4">
+        <v>27.5</v>
+      </c>
+      <c r="I4">
+        <f>12+3/8</f>
+        <v>12.375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <f>15+3/8</f>
+        <v>15.375</v>
+      </c>
+      <c r="C5">
+        <f>57+7/8</f>
+        <v>57.875</v>
+      </c>
+      <c r="D5">
+        <v>16.5</v>
+      </c>
+      <c r="I5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <f>15+3/8</f>
+        <v>15.375</v>
+      </c>
+      <c r="C6">
+        <f>30+3/8</f>
+        <v>30.375</v>
+      </c>
+      <c r="D6">
+        <f>57+7/8</f>
+        <v>57.875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
